--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3283.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3283.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6579314970597234</v>
+        <v>1.339376211166382</v>
       </c>
       <c r="B1">
-        <v>0.973778504425577</v>
+        <v>2.933096408843994</v>
       </c>
       <c r="C1">
-        <v>2.061269916436317</v>
+        <v>2.759621620178223</v>
       </c>
       <c r="D1">
-        <v>4.647039185842167</v>
+        <v>1.426152944564819</v>
       </c>
       <c r="E1">
-        <v>2.632931396726566</v>
+        <v>1.047430992126465</v>
       </c>
     </row>
   </sheetData>
